--- a/daa.xlsx
+++ b/daa.xlsx
@@ -5,19 +5,43 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zypsie/Desktop/DAA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zypsie/Docs/DAA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB55BDB-789A-6C41-B076-7F84C8F43C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F764596F-686A-FC42-9B38-C4983295F8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{AA7AF083-6B3E-D74C-8909-967AD95A137C}"/>
+    <workbookView xWindow="10000" yWindow="1480" windowWidth="25600" windowHeight="14520" activeTab="1" xr2:uid="{AA7AF083-6B3E-D74C-8909-967AD95A137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$C$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$C$14</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sheet2!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sheet2!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$2:$A$5</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sheet2!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Sheet2!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$C$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$A$2:$A$5</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Input Size(n)</t>
   </si>
@@ -38,10 +62,16 @@
     <t>Time (milli sec)</t>
   </si>
   <si>
-    <t>Input</t>
+    <t>time sec(bubble sort)</t>
   </si>
   <si>
-    <t>time</t>
+    <t>time sec (selection sort)</t>
+  </si>
+  <si>
+    <t>time sec (insetion sort)</t>
+  </si>
+  <si>
+    <t>arr size (in thousand)</t>
   </si>
 </sst>
 </file>
@@ -465,7 +495,517 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41504855643044625"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time sec(bubble sort)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1928999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9243000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.513999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD2A-E545-BAD1-DA00E4BEA41B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time sec (selection sort)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0288999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8555999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6910999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.438000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD2A-E545-BAD1-DA00E4BEA41B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time sec (insetion sort)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.64710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7968999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2446999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD2A-E545-BAD1-DA00E4BEA41B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2088323679"/>
+        <c:axId val="2034120735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2088323679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2034120735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2034120735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2088323679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1010,6 +1550,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1031,6 +2076,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1AAD59-7373-3FA5-AA71-C6ED80F7EBF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209106</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>206743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>605466</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>147673</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6982827A-F47D-3332-CA73-2BA68235A7C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,63 +2515,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886C385D-5906-0A44-9D40-337406306EDA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>100000</v>
+        <v>30</v>
       </c>
       <c r="B2">
-        <v>291000</v>
+        <v>3.1928999999999998</v>
+      </c>
+      <c r="C2">
+        <v>1.0288999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.64710000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>200000</v>
+        <v>50</v>
       </c>
       <c r="B3">
-        <v>587000</v>
+        <v>8.9243000000000006</v>
+      </c>
+      <c r="C3">
+        <v>2.8555999999999999</v>
+      </c>
+      <c r="D3">
+        <v>1.7968999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>250000</v>
+        <v>70</v>
       </c>
       <c r="B4">
-        <v>753000</v>
+        <v>17.513999999999999</v>
+      </c>
+      <c r="C4">
+        <v>5.6910999999999996</v>
+      </c>
+      <c r="D4">
+        <v>3.5501</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>350000</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>964000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>400000</v>
-      </c>
-      <c r="B6">
-        <v>1137000</v>
+        <v>41.62</v>
+      </c>
+      <c r="C5">
+        <v>11.438000000000001</v>
+      </c>
+      <c r="D5">
+        <v>7.2446999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>